--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,52 +66,52 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.5 - 2x_1 + 1.1203639454283636y_1 - 0.1606645093531266y_2</t>
-  </si>
-  <si>
-    <t>-1.4191809524470769</t>
+    <t>-1.7806039396874054 - 2x_1 + 1.9677837616607594y_1 + 1.5150401184535802y_2</t>
+  </si>
+  <si>
+    <t>4.280603939687405</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4508014206716149</t>
-  </si>
-  <si>
-    <t>0.4149148658434936</t>
+    <t>0.79</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-2 + x_1 - 3x_2 - 0.12298386274618887y_1 + 0.142395005311986y_2</t>
-  </si>
-  <si>
-    <t>-1.732472206997669</t>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.1496672299905422 + x_1 - 3x_2 - 0.3477103695949638y_1 + 0.09638334121977188y_2</t>
+  </si>
+  <si>
+    <t>-3.149667229990542</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.22014013961262302</t>
-  </si>
-  <si>
-    <t>0.09943730747043533</t>
-  </si>
-  <si>
-    <t>-2 + x_1 + x_2</t>
-  </si>
-  <si>
-    <t>1.7579091632801132</t>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>-51.80611610564271 + x_1 + x_2 + 3.184817181354109y_1 + 8.276583363312918y_2</t>
+  </si>
+  <si>
+    <t>49.79611610564271</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.2577161402299323</t>
-  </si>
-  <si>
-    <t>0.18780164673255695</t>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>9.200000000000001</t>
   </si>
   <si>
     <t>x_1</t>
@@ -126,40 +126,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>2.916744737742059</t>
-  </si>
-  <si>
-    <t>0.841164425538054</t>
-  </si>
-  <si>
-    <t>1.8056768518272297</t>
-  </si>
-  <si>
-    <t>0.6766069201123486</t>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.5220120264466837</t>
-  </si>
-  <si>
-    <t>-0.9589190672816233</t>
+    <t>0.7569434836203279</t>
+  </si>
+  <si>
+    <t>-6.674911210477084</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.64202808495443</t>
-  </si>
-  <si>
-    <t>-1.187801646732557</t>
-  </si>
-  <si>
-    <t>-0.9648556561132966</t>
-  </si>
-  <si>
-    <t>0.06666209334406324</t>
+    <t>-0.3999999999999999</t>
+  </si>
+  <si>
+    <t>6.199999999999999</t>
+  </si>
+  <si>
+    <t>0.33450488702791314</t>
+  </si>
+  <si>
+    <t>-0.2313200189274525</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -630,10 +630,10 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -650,10 +650,10 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -783,12 +783,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.124241988445849</v>
+        <v>0.3725647919618656</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.8663782992491225</v>
+        <v>0.968207398829925</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,52 +66,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1.7806039396874054 - 2x_1 + 1.9677837616607594y_1 + 1.5150401184535802y_2</t>
-  </si>
-  <si>
-    <t>4.280603939687405</t>
+    <t>-12.283442485306468 - 2x_1 + 3.1187237615449206y_1 + 1.9204030226700257y_2</t>
+  </si>
+  <si>
+    <t>14.783442485306468</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.79</t>
+    <t>0.96</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>1.1496672299905422 + x_1 - 3x_2 - 0.3477103695949638y_1 + 0.09638334121977188y_2</t>
-  </si>
-  <si>
-    <t>-3.149667229990542</t>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>5.531040736639048 + x_1 - 3x_2 - 0.8984582512388339y_1 - 0.23841542738325772y_2</t>
+  </si>
+  <si>
+    <t>-7.531040736639048</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>-51.80611610564271 + x_1 + x_2 + 3.184817181354109y_1 + 8.276583363312918y_2</t>
-  </si>
-  <si>
-    <t>49.79611610564271</t>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>-5.876876574307305 + x_1 + x_2 + 0.2795969773299748y_1 + 0.3853904282115869y_2</t>
+  </si>
+  <si>
+    <t>3.8168765743073045</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>9.200000000000001</t>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
   </si>
   <si>
     <t>x_1</t>
@@ -126,40 +129,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>2.15</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.7569434836203279</t>
-  </si>
-  <si>
-    <t>-6.674911210477084</t>
+    <t>1.736350461379434</t>
+  </si>
+  <si>
+    <t>-2.7369223370175373</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.3999999999999999</t>
-  </si>
-  <si>
-    <t>6.199999999999999</t>
-  </si>
-  <si>
-    <t>0.33450488702791314</t>
-  </si>
-  <si>
-    <t>-0.2313200189274525</t>
+    <t>-10.399999999999999</t>
+  </si>
+  <si>
+    <t>3.400000000000002</t>
+  </si>
+  <si>
+    <t>0.9808294410973093</t>
+  </si>
+  <si>
+    <t>-2.15885671632533</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -650,10 +653,10 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -671,30 +674,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -712,17 +715,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -740,27 +743,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -778,17 +781,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.3725647919618656</v>
+        <v>1.1099999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.968207398829925</v>
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,10 +66,10 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-12.283442485306468 - 2x_1 + 3.1187237615449206y_1 + 1.9204030226700257y_2</t>
-  </si>
-  <si>
-    <t>14.783442485306468</t>
+    <t>-3.5801944728761512 - 2x_1 + 1.5730467417263732y_1 + 1.9255544182872733y_2</t>
+  </si>
+  <si>
+    <t>6.080194472876151</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
@@ -81,40 +81,37 @@
     <t>0</t>
   </si>
   <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>5.531040736639048 + x_1 - 3x_2 - 0.8984582512388339y_1 - 0.23841542738325772y_2</t>
-  </si>
-  <si>
-    <t>-7.531040736639048</t>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>1.3934237461617203 + x_1 - 3x_2 - 0.18863868986693957y_1 + 0.03694984646878219y_2</t>
+  </si>
+  <si>
+    <t>-3.3934237461617203</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>-5.876876574307305 + x_1 + x_2 + 0.2795969773299748y_1 + 0.3853904282115869y_2</t>
-  </si>
-  <si>
-    <t>3.8168765743073045</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>-6.6 + x_1 + x_2</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>0.8999999999999999</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
   </si>
   <si>
     <t>x_1</t>
@@ -129,40 +126,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>2.15</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>6.1000000000000005</t>
+  </si>
+  <si>
+    <t>1.55</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.736350461379434</t>
-  </si>
-  <si>
-    <t>-2.7369223370175373</t>
+    <t>2.6219222108495392</t>
+  </si>
+  <si>
+    <t>-2.87439713408393</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-10.399999999999999</t>
-  </si>
-  <si>
-    <t>3.400000000000002</t>
-  </si>
-  <si>
-    <t>0.9808294410973093</t>
-  </si>
-  <si>
-    <t>-2.15885671632533</t>
+    <t>-0.8999999999999999</t>
+  </si>
+  <si>
+    <t>-3.9</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>-0.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -633,10 +630,10 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -656,7 +653,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -674,30 +671,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -715,17 +712,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -743,27 +740,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -781,17 +778,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.1099999999999999</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.53</v>
+        <v>2.91</v>
       </c>
     </row>
   </sheetData>
